--- a/AbhibusHybridFramework/src/test/resources/userData/testData.xlsx
+++ b/AbhibusHybridFramework/src/test/resources/userData/testData.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TC_101" sheetId="1" r:id="rId1"/>
+    <sheet name="TC_102" sheetId="2" r:id="rId2"/>
+    <sheet name="TC_103" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>Username</t>
   </si>
@@ -34,13 +36,40 @@
     <t>Exp Msg</t>
   </si>
   <si>
-    <t xml:space="preserve">Hello  Sachin, </t>
-  </si>
-  <si>
     <t>Act Msg</t>
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Hello Sachin,</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>TC_102</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>hyderabad</t>
+  </si>
+  <si>
+    <t>bangalore</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Kondapur</t>
+  </si>
+  <si>
+    <t>FilterBy</t>
+  </si>
+  <si>
+    <t>TC_103</t>
   </si>
 </sst>
 </file>
@@ -427,19 +456,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -453,10 +485,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -467,7 +499,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
@@ -483,4 +521,130 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>